--- a/student_to_job.xlsx
+++ b/student_to_job.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mj/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DesireeMora/Documents/GitHub/team-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{403F51EE-4932-4C42-9C3C-E1CEC659FD60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3066A72A-669D-D84F-984E-C2BAF2A67BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FE6D09F4-01E3-4E46-B824-02550AA043DF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{FE6D09F4-01E3-4E46-B824-02550AA043DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,19 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Student Rank</t>
-  </si>
-  <si>
-    <t>Company Rank</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
   <si>
     <t>Company Name</t>
   </si>
@@ -491,7 +479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130556E3-1B5E-A147-A1DB-6D486DE88285}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -509,238 +499,226 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
         <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -766,33 +744,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/student_to_job.xlsx
+++ b/student_to_job.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DesireeMora/Documents/GitHub/team-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3066A72A-669D-D84F-984E-C2BAF2A67BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71ED55E2-EA13-764D-8F3D-88725979A3BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{FE6D09F4-01E3-4E46-B824-02550AA043DF}"/>
+    <workbookView xWindow="6220" yWindow="460" windowWidth="14000" windowHeight="15540" xr2:uid="{FE6D09F4-01E3-4E46-B824-02550AA043DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,7 +136,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -160,9 +166,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130556E3-1B5E-A147-A1DB-6D486DE88285}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -498,228 +506,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student_to_job.xlsx
+++ b/student_to_job.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DesireeMora/Documents/GitHub/team-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71ED55E2-EA13-764D-8F3D-88725979A3BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2ADEE6-0CFB-1044-8F98-51B8D28967B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6220" yWindow="460" windowWidth="14000" windowHeight="15540" xr2:uid="{FE6D09F4-01E3-4E46-B824-02550AA043DF}"/>
+    <workbookView xWindow="11600" yWindow="460" windowWidth="14000" windowHeight="15540" xr2:uid="{FE6D09F4-01E3-4E46-B824-02550AA043DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130556E3-1B5E-A147-A1DB-6D486DE88285}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/student_to_job.xlsx
+++ b/student_to_job.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DesireeMora/Documents/GitHub/team-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2ADEE6-0CFB-1044-8F98-51B8D28967B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D5EB9E-F265-0247-8F0F-7B08CC4BBD60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11600" yWindow="460" windowWidth="14000" windowHeight="15540" xr2:uid="{FE6D09F4-01E3-4E46-B824-02550AA043DF}"/>
   </bookViews>

--- a/student_to_job.xlsx
+++ b/student_to_job.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mj/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtapi\Documents\JP\team-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{403F51EE-4932-4C42-9C3C-E1CEC659FD60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2088B226-92FD-4CF2-903C-BD9CFB2A76E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FE6D09F4-01E3-4E46-B824-02550AA043DF}"/>
+    <workbookView xWindow="10872" yWindow="108" windowWidth="17280" windowHeight="9360" xr2:uid="{FE6D09F4-01E3-4E46-B824-02550AA043DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,33 +76,9 @@
     <t>Company</t>
   </si>
   <si>
-    <t xml:space="preserve">AT&amp;T - Sales Rep Intern </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT&amp;T - Software Intern </t>
-  </si>
-  <si>
-    <t>AT&amp;T - Business Intern</t>
-  </si>
-  <si>
-    <t>Cisco - Cyber Security Intern</t>
-  </si>
-  <si>
-    <t>Cisco - Software Engineering Intern</t>
-  </si>
-  <si>
-    <t>Cisco - Systems Intern</t>
-  </si>
-  <si>
     <t>Wells Fargo - Accountant Intern</t>
   </si>
   <si>
-    <t>Hilton Suites - Event Planner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hilton Suites - Food Coordinator </t>
-  </si>
-  <si>
     <t>Gracey Gould</t>
   </si>
   <si>
@@ -131,13 +107,37 @@
   </si>
   <si>
     <t>Haleema O'Reilly</t>
+  </si>
+  <si>
+    <t>AT&amp;T - Sales Rep Intern</t>
+  </si>
+  <si>
+    <t>AT&amp;T - Software Intern</t>
+  </si>
+  <si>
+    <t>Hilton Suites - Event Planner Intern</t>
+  </si>
+  <si>
+    <t>AT&amp;T - Business Line Intern</t>
+  </si>
+  <si>
+    <t>Cisco - Software Engineer Intern</t>
+  </si>
+  <si>
+    <t>Hilton Suites - Food Coordinator Intern</t>
+  </si>
+  <si>
+    <t>AT&amp;T - Cyber Security Intern</t>
+  </si>
+  <si>
+    <t>Cisco - Systems Engineer Intern</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,6 +150,15 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -172,9 +181,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,23 +502,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130556E3-1B5E-A147-A1DB-6D486DE88285}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="5" max="5" width="18.19921875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.19921875" customWidth="1"/>
+    <col min="8" max="8" width="17.69921875" customWidth="1"/>
+    <col min="9" max="9" width="15.796875" customWidth="1"/>
+    <col min="10" max="10" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -524,223 +537,223 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="H10" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -756,15 +769,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.296875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.296875" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -784,7 +797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>

--- a/student_to_job.xlsx
+++ b/student_to_job.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DesireeMora/Documents/GitHub/team-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D5EB9E-F265-0247-8F0F-7B08CC4BBD60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27FA705-DDA6-514A-9235-33F8EDFCFD69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11600" yWindow="460" windowWidth="14000" windowHeight="15540" xr2:uid="{FE6D09F4-01E3-4E46-B824-02550AA043DF}"/>
+    <workbookView xWindow="660" yWindow="580" windowWidth="14000" windowHeight="15540" xr2:uid="{FE6D09F4-01E3-4E46-B824-02550AA043DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/student_to_job.xlsx
+++ b/student_to_job.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DesireeMora/Documents/GitHub/team-3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtapi\Documents\JP\team-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3066A72A-669D-D84F-984E-C2BAF2A67BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1FB7FF-D72B-4B4F-96A9-63E94381A7AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{FE6D09F4-01E3-4E46-B824-02550AA043DF}"/>
+    <workbookView xWindow="3852" yWindow="456" windowWidth="17280" windowHeight="9360" xr2:uid="{FE6D09F4-01E3-4E46-B824-02550AA043DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,33 +64,9 @@
     <t>Company</t>
   </si>
   <si>
-    <t xml:space="preserve">AT&amp;T - Sales Rep Intern </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT&amp;T - Software Intern </t>
-  </si>
-  <si>
-    <t>AT&amp;T - Business Intern</t>
-  </si>
-  <si>
-    <t>Cisco - Cyber Security Intern</t>
-  </si>
-  <si>
-    <t>Cisco - Software Engineering Intern</t>
-  </si>
-  <si>
-    <t>Cisco - Systems Intern</t>
-  </si>
-  <si>
     <t>Wells Fargo - Accountant Intern</t>
   </si>
   <si>
-    <t>Hilton Suites - Event Planner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hilton Suites - Food Coordinator </t>
-  </si>
-  <si>
     <t>Gracey Gould</t>
   </si>
   <si>
@@ -119,13 +95,37 @@
   </si>
   <si>
     <t>Haleema O'Reilly</t>
+  </si>
+  <si>
+    <t>Cisco - Software Engineer Intern</t>
+  </si>
+  <si>
+    <t>AT&amp;T - Software Intern</t>
+  </si>
+  <si>
+    <t>AT&amp;T - Sales Rep Intern</t>
+  </si>
+  <si>
+    <t>Hilton Suites - Food Coordinator Intern</t>
+  </si>
+  <si>
+    <t>Hilton Suites - Event Planner Intern</t>
+  </si>
+  <si>
+    <t>Cisco - Systems Engineer Intern</t>
+  </si>
+  <si>
+    <t>AT&amp;T - Cyber Security Intern</t>
+  </si>
+  <si>
+    <t>AT&amp;T - Business Line Intern</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,6 +138,15 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,9 +169,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,245 +491,245 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="5" max="5" width="18.19921875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.19921875" customWidth="1"/>
+    <col min="8" max="8" width="17.69921875" customWidth="1"/>
+    <col min="9" max="9" width="15.796875" customWidth="1"/>
+    <col min="10" max="10" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="H10" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -734,15 +745,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.296875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.296875" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -762,7 +773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
